--- a/biology/Botanique/Hymenophyllum_ciliatum/Hymenophyllum_ciliatum.xlsx
+++ b/biology/Botanique/Hymenophyllum_ciliatum/Hymenophyllum_ciliatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hymenophyllum ciliatum est une fougère de la famille des Hyménophyllacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce a les caractéristiques suivantes :
 un rhizome assez long, rampant et robuste ;
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, plus épiphyte que terrestre, est présente en Amérique, Afrique et Austronésie tropicales.
 </t>
@@ -576,15 +592,17 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hymenophyllum ciliatum est une espèce classée dans le sous-genre Sphaerocionium.
-Olof Peter Swartz décrit d'abord cette espèce sous le nom de Trichomanes ciliatum en 1788[1]. Mais, en 1801, il la place dans le genre Hymenophyllum.
-En 1843, Karel Bořivoj Presl la place dans le genre Sphaerocionium : Sphaerocionium ciliatum (Sw.) C.Presl[2].
+Olof Peter Swartz décrit d'abord cette espèce sous le nom de Trichomanes ciliatum en 1788. Mais, en 1801, il la place dans le genre Hymenophyllum.
+En 1843, Karel Bořivoj Presl la place dans le genre Sphaerocionium : Sphaerocionium ciliatum (Sw.) C.Presl.
 Elle compte donc comme synonymes nomenclaturaux : Sphaerocionium ciliatum (Sw.) C.Presl, Trichomanes ciliatum  Sw.
-L'index Tropicos, Conrad Vernon Morton, Robert G. Stolze et Rolla Milton Tryon et d'autres botanistes font de cette espèce un synonyme de Hymenophyllum hirsutum (L.) Sw. ; notamment, l'argumentation développée par Conrad Vernon Morton est particulièrement convaincante[3]. Cependant,  William Jackson Hooker, Eduard Rosenstock, Carl Frederik Albert Christensen et Marie-Laure Tardieu-Blot, entre autres, en font une espèce à part entière : ceci a été suivi, peut-être à tort.
+L'index Tropicos, Conrad Vernon Morton, Robert G. Stolze et Rolla Milton Tryon et d'autres botanistes font de cette espèce un synonyme de Hymenophyllum hirsutum (L.) Sw. ; notamment, l'argumentation développée par Conrad Vernon Morton est particulièrement convaincante. Cependant,  William Jackson Hooker, Eduard Rosenstock, Carl Frederik Albert Christensen et Marie-Laure Tardieu-Blot, entre autres, en font une espèce à part entière : ceci a été suivi, peut-être à tort.
 Elle compte de nombreux taxons de rang inférieurs :
-Hymenophyllum ciliatum f. tuberosa Rosenst. (1906) - Brésil - [4]
+Hymenophyllum ciliatum f. tuberosa Rosenst. (1906) - Brésil - 
 Hymenophyllum ciliatum var. abbreviata Rosenst. (1915) - Brésil
 Hymenophyllum ciliatum var. crispatum Baker (1874) - Andes et Brésil
 Hymenophyllum ciliatum var. majus Tardieu (1951) - Madagascar
